--- a/code/ros.xlsx
+++ b/code/ros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeytelaak/Documents/Projects/AutoCart Rev2/Drive Computer/Components/GolfCart-ECU/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F51DBB-2BA8-B342-B93C-9FDEC06FC914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A056C218-A5D6-284B-B511-897C32A3FEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="54880" yWindow="1480" windowWidth="28040" windowHeight="17440" xr2:uid="{9B1E3D47-4DE0-4C4B-80FA-755DD5759A4B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="66">
   <si>
     <t>Type</t>
   </si>
@@ -200,9 +200,6 @@
     <t>gyro_gz</t>
   </si>
   <si>
-    <t>steering_node</t>
-  </si>
-  <si>
     <t>steering_wheel_ticks</t>
   </si>
   <si>
@@ -228,6 +225,15 @@
   </si>
   <si>
     <t>accel_pedal_pos</t>
+  </si>
+  <si>
+    <t>steer_node</t>
+  </si>
+  <si>
+    <t>steering_act_pos</t>
+  </si>
+  <si>
+    <t>Position of the steering actuator</t>
   </si>
 </sst>
 </file>
@@ -594,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE7DAAF-3587-1D44-9AE8-10FD699D3FB4}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -779,7 +785,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -1069,10 +1075,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -1081,15 +1087,15 @@
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -1098,15 +1104,15 @@
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
@@ -1115,24 +1121,41 @@
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
